--- a/firstpractice.xlsx
+++ b/firstpractice.xlsx
@@ -11,17 +11,26 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Git Learning</t>
   </si>
   <si>
     <t>Editing</t>
+  </si>
+  <si>
+    <t>Git Learning 1</t>
+  </si>
+  <si>
+    <t>Edit 2</t>
   </si>
 </sst>
 </file>
@@ -72,8 +81,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -362,9 +399,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -379,6 +418,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
